--- a/REGULAR/OJT/NEW DONE/OCAMPO, ORLANDO.xlsx
+++ b/REGULAR/OJT/NEW DONE/OCAMPO, ORLANDO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA435F96-4443-42B3-8D67-0F471484525F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342F0DDD-5183-4C09-9E63-DD4CC5E34F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="354">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3495,7 +3495,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3893,9 +3893,9 @@
   <dimension ref="A2:K560"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A530" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A539" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="D537" sqref="D537"/>
+      <selection pane="bottomLeft" activeCell="K548" sqref="K548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4058,7 +4058,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.448999999999984</v>
+        <v>55.448999999999984</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4068,7 +4068,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.24799999999999</v>
+        <v>135.24799999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12006,7 +12006,7 @@
       <c r="D363" s="39"/>
       <c r="E363" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>50.448999999999984</v>
+        <v>55.448999999999984</v>
       </c>
       <c r="F363" s="20"/>
       <c r="G363" s="13" t="str">
@@ -12016,7 +12016,7 @@
       <c r="H363" s="39"/>
       <c r="I363" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.24799999999999</v>
+        <v>135.24799999999999</v>
       </c>
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
@@ -15988,13 +15988,15 @@
         <v>44986</v>
       </c>
       <c r="B543" s="20"/>
-      <c r="C543" s="13"/>
+      <c r="C543" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D543" s="39"/>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G543" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H543" s="39"/>
       <c r="I543" s="9"/>
@@ -16006,13 +16008,15 @@
         <v>45017</v>
       </c>
       <c r="B544" s="20"/>
-      <c r="C544" s="13"/>
+      <c r="C544" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D544" s="39"/>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
-      <c r="G544" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G544" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H544" s="39"/>
       <c r="I544" s="9"/>
@@ -16024,13 +16028,15 @@
         <v>45047</v>
       </c>
       <c r="B545" s="20"/>
-      <c r="C545" s="13"/>
+      <c r="C545" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D545" s="39"/>
       <c r="E545" s="9"/>
       <c r="F545" s="20"/>
-      <c r="G545" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G545" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H545" s="39"/>
       <c r="I545" s="9"/>
@@ -16042,13 +16048,15 @@
         <v>45078</v>
       </c>
       <c r="B546" s="20"/>
-      <c r="C546" s="13"/>
+      <c r="C546" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
       <c r="F546" s="20"/>
-      <c r="G546" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G546" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
@@ -16059,7 +16067,9 @@
       <c r="A547" s="40">
         <v>45108</v>
       </c>
-      <c r="B547" s="20"/>
+      <c r="B547" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C547" s="13"/>
       <c r="D547" s="39"/>
       <c r="E547" s="9"/>
@@ -16071,7 +16081,9 @@
       <c r="H547" s="39"/>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
+      <c r="K547" s="49">
+        <v>45103</v>
+      </c>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
